--- a/test_workbook/work3_test/work3-2-10/RefFile1.xlsx
+++ b/test_workbook/work3_test/work3-2-10/RefFile1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1040F44-BA34-4B7E-8951-B8350A7161F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{413F0CA4-2FCA-4BFD-8659-AAE41EF972D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{317EC8CF-22F8-4B56-AC18-56DDFC71F434}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD3F8019-60C7-43DF-9887-9BA3005FD6B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,36 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>品目CD</t>
   </si>
   <si>
+    <t>内部名</t>
+  </si>
+  <si>
     <t>製造LT</t>
   </si>
   <si>
     <t>購入LT</t>
   </si>
   <si>
-    <t>内部名</t>
-  </si>
-  <si>
-    <t>オーダ比率</t>
+    <t>AF</t>
   </si>
   <si>
     <t>P0001</t>
   </si>
   <si>
-    <t>内製品</t>
+    <t>Internal1</t>
   </si>
   <si>
     <t>P0002</t>
   </si>
   <si>
-    <t>外注品</t>
-  </si>
-  <si>
-    <t>P0003</t>
+    <t>Internal2</t>
   </si>
 </sst>
 </file>
@@ -448,8 +445,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9920F9-5806-4BFD-8D5B-EF062CC8C44A}">
-  <dimension ref="B2:BN5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F8A05-4F18-4C6E-8087-C41A7B7D248F}">
+  <dimension ref="B2:BN4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,16 +457,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF2" t="s">
         <v>4</v>
       </c>
       <c r="BN2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:66" x14ac:dyDescent="0.4">
@@ -480,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -494,32 +491,15 @@
         <v>7</v>
       </c>
       <c r="O4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:66" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5">
-        <v>15</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="BN5" t="s">
         <v>8</v>
       </c>
     </row>
